--- a/OTHER/DOCUMENTATION/MW OSD R1.8 Current and RSSI calibration.xlsx
+++ b/OTHER/DOCUMENTATION/MW OSD R1.8 Current and RSSI calibration.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="77">
   <si>
     <t>Hardware  current sensor</t>
   </si>
@@ -236,6 +236,21 @@
   </si>
   <si>
     <t>Enter sensor sensitivity in mV</t>
+  </si>
+  <si>
+    <t>Hardware temperature sensor - LM35</t>
+  </si>
+  <si>
+    <t>Enter sensor 0 degrees C offset voltage in mV</t>
+  </si>
+  <si>
+    <t>Enter sensor sensitivity in mV per degree C</t>
+  </si>
+  <si>
+    <t>RECOMMENDED OSD settings - GUI: (with 5v reference)</t>
+  </si>
+  <si>
+    <t>RECOMMENDED OSD settings - GUI: (with 1.1v reference)</t>
   </si>
 </sst>
 </file>
@@ -245,7 +260,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -267,17 +282,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF4A86E8"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -346,7 +350,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -361,17 +365,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -495,26 +488,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -523,98 +505,98 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -934,7 +916,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -942,314 +924,389 @@
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
     <col min="2" max="2" width="51.140625" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="38.140625" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="17"/>
+      <c r="E1" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="16"/>
+      <c r="G1" s="17"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="33"/>
+      <c r="E2" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="33"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
-      <c r="H3" s="2"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="21">
         <v>5.0999999999999996</v>
       </c>
-      <c r="H4" s="8"/>
+      <c r="E4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="21">
+        <v>5.0999999999999996</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="23"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
-      <c r="H5" s="8"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="22">
         <v>2500</v>
       </c>
-      <c r="H6" s="8"/>
+      <c r="E6" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="27"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="22"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="22"/>
+    </row>
+    <row r="8" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="22">
         <v>36.6</v>
       </c>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="F9" s="11"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="50" t="s">
+      <c r="E8" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25"/>
+    </row>
+    <row r="10" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="51"/>
-      <c r="F10" s="11"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
-      <c r="B11" s="31" t="s">
+      <c r="B10" s="16"/>
+      <c r="C10" s="46"/>
+      <c r="E10" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="46"/>
+    </row>
+    <row r="11" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="23"/>
+      <c r="B11" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="27">
         <f>C6/(C4*1000/1024)</f>
         <v>501.96078431372547</v>
       </c>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="34" t="s">
+      <c r="E11" s="23"/>
+      <c r="F11" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="27">
+        <f>G6/(G4*1000/1024)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
+      <c r="B12" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="30">
         <f>((C4*1000)-C6)*10/C8</f>
         <v>710.38251366120221</v>
       </c>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="39"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="68"/>
-      <c r="H13" s="10"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="30">
+        <f>((G8*100)-G6)*1/G4</f>
+        <v>196.07843137254903</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="34"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="63"/>
+      <c r="E13" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="46"/>
     </row>
     <row r="14" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="6"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="4"/>
-      <c r="H14" s="12"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="27">
+        <f>G6/(G4*1000/1024)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="42"/>
-      <c r="H15" s="13"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="37"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="30">
+        <f>((G8*102.4)-G6)*1/1.1</f>
+        <v>930.90909090909088</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="22">
         <v>2200</v>
       </c>
-      <c r="H16" s="13"/>
-    </row>
-    <row r="17" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="45"/>
-      <c r="B17" s="46" t="s">
+    </row>
+    <row r="17" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="40"/>
+      <c r="B17" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="52"/>
-      <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="45"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="52"/>
-      <c r="H18" s="13"/>
-    </row>
-    <row r="19" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="s">
+      <c r="C17" s="47"/>
+    </row>
+    <row r="18" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="40"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="47"/>
+    </row>
+    <row r="19" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="22">
         <v>600</v>
       </c>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="47"/>
-      <c r="B20" s="24" t="s">
+    </row>
+    <row r="20" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="42"/>
+      <c r="B20" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="52"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="52"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="50" t="s">
+      <c r="C20" s="47"/>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="23"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="47"/>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="49"/>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="28"/>
-      <c r="B23" s="31" t="s">
+      <c r="B22" s="16"/>
+      <c r="C22" s="44"/>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="23"/>
+      <c r="B23" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="43">
+      <c r="C23" s="38">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" s="34" t="s">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="28"/>
+      <c r="B24" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="44">
+      <c r="C24" s="39">
         <f>(C16*60*60)/(100*C19)</f>
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="16"/>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="40" t="s">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="11"/>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="55"/>
-      <c r="C27" s="56"/>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="36" t="s">
+      <c r="B27" s="50"/>
+      <c r="C27" s="51"/>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="53"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="23"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="54"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="s">
+      <c r="C28" s="48"/>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="18"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="49"/>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="26">
+      <c r="C30" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="23"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="54"/>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="23" t="s">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="18"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="49"/>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="26">
+      <c r="C32" s="21">
         <v>1.5</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="54"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="49"/>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="26">
+      <c r="C34" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="57"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="59"/>
+      <c r="A35" s="52"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="54"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="48" t="s">
+      <c r="A36" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="60"/>
-      <c r="C36" s="65"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="60"/>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="61"/>
-      <c r="B37" s="62" t="s">
+      <c r="A37" s="56"/>
+      <c r="B37" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="66">
+      <c r="C37" s="61">
         <f>1023*C32/C30</f>
         <v>306.89999999999998</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="63"/>
-      <c r="B38" s="64" t="s">
+      <c r="A38" s="58"/>
+      <c r="B38" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="67">
+      <c r="C38" s="62">
         <f>1023*C34/C30</f>
         <v>204.6</v>
       </c>
@@ -1257,18 +1314,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1">
-          <x14:formula1>
-            <xm:f>'Current sensor data'!$B$2:$B$75</xm:f>
-          </x14:formula1>
-          <xm:sqref>F9:F10</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1293,624 +1338,624 @@
       <c r="A1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15">
+      <c r="A2" s="10">
         <v>42006.460461134266</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="11">
         <f>Current!C6</f>
         <v>2500</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="11">
         <f>Current!C8</f>
         <v>36.6</v>
       </c>
-      <c r="E2" s="16" t="e">
+      <c r="E2" s="11" t="e">
         <f>Current!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15">
+      <c r="A3" s="10">
         <v>42006.460742685187</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="11">
         <v>500</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="11">
         <v>133</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="11">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15">
+      <c r="A4" s="10">
         <v>42006.460837766201</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="9">
         <v>0</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="9">
         <v>100</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="9">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15">
+      <c r="A5" s="10">
         <v>42021.451554328698</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>20</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>20</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>100</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15">
+      <c r="A6" s="10">
         <v>42026.682952824071</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>0</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>36.6</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>90</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15">
+      <c r="A7" s="10">
         <v>42026.690824178237</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>0</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>18.3</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>180</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15">
+      <c r="A8" s="10">
         <v>42026.691613275463</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>0</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>73.2</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>45</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="13" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15">
+      <c r="A9" s="10">
         <v>42026.69821519676</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>0</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>55.55</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>90</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15">
+      <c r="A10" s="10">
         <v>42029.084912638886</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>7.4</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>10</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15">
+      <c r="A11" s="10">
         <v>42084.572737638897</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>0</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>73</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15">
+      <c r="A12" s="10">
         <v>42103.075332916669</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>0</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>18.3</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15">
+      <c r="A13" s="10">
         <v>42131.482334120374</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>0</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>36.6</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>90</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="13" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15">
+      <c r="A14" s="10">
         <v>42142.434877893524</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>2500</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>20</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15">
+      <c r="A15" s="10">
         <v>42142.436008761579</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>2500</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>20</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="15">
+      <c r="A16" s="10">
         <v>42144.678300381944</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>600</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>40</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <v>100</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="13" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="15">
+      <c r="A17" s="10">
         <v>42151.202535671298</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>6</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>100</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <v>50</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="15">
+      <c r="A18" s="10">
         <v>42168.435872453701</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>0</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>36.6</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <v>90</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15">
+      <c r="A19" s="10">
         <v>42231.527173645838</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>0</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>18.3</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <v>180</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="13" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="15">
+      <c r="A20" s="10">
         <v>42256.54577060185</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <v>2500</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>66</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="6">
         <v>30</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="13" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="15">
+      <c r="A21" s="10">
         <v>42265.57342670139</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <v>0</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>85</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="6">
         <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="15">
+      <c r="A22" s="10">
         <v>42268.505000335645</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <v>600</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="6">
         <v>26.6</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="6">
         <v>150</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="15">
+      <c r="A23" s="10">
         <v>42292.337003333334</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <v>0</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <v>36.6</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="6">
         <v>90</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="13" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="15">
+      <c r="A24" s="10">
         <v>42292.61860519676</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <v>0</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <v>36.6</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="6">
         <v>90</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="13" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="15">
+      <c r="A25" s="10">
         <v>42337.780623240746</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <v>15</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="6">
         <v>40</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="6">
         <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15">
+      <c r="A26" s="10">
         <v>42459.19147366898</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="6">
         <v>0</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="6">
         <v>55.55</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="6">
         <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="15">
+      <c r="A27" s="10">
         <v>42490.817615069449</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="6">
         <v>20</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="6">
         <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="15">
+      <c r="A28" s="10">
         <v>42819.662158136576</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="6">
         <v>0</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="6">
         <v>50</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="6">
         <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="15">
+      <c r="A29" s="10">
         <v>42144.678300381944</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="6">
         <v>2500</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="6">
         <v>20</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="6">
         <v>100</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="F29" s="13" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="15">
+      <c r="A30" s="10">
         <v>42144.678300381944</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="6">
         <v>600</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="6">
         <v>60</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="6">
         <v>50</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="F30" s="13" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="15">
+      <c r="A31" s="10">
         <v>42144.678300381944</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="6">
         <v>2500</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="6">
         <v>40</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="6">
         <v>50</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="F31" s="13" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="15">
+      <c r="A32" s="10">
         <v>42144.678300381944</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="6">
         <v>600</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="6">
         <v>26.7</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="6">
         <v>150</v>
       </c>
-      <c r="F32" s="18" t="s">
+      <c r="F32" s="13" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="15">
+      <c r="A33" s="10">
         <v>42144.678300381944</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="6">
         <v>2500</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="6">
         <v>13.3</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="6">
         <v>150</v>
       </c>
-      <c r="F33" s="18" t="s">
+      <c r="F33" s="13" t="s">
         <v>45</v>
       </c>
     </row>
